--- a/Justgrowth_Design_Template.xlsx
+++ b/Justgrowth_Design_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Povilas/Dropbox/Projects/Metformin_project/Bacterial Growth Assays/Media growth assays/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Povilas/Scripts/Growth_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>File</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>OP50-C</t>
+  </si>
+  <si>
+    <t>Variable1</t>
+  </si>
+  <si>
+    <t>Variable2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -368,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -381,7 +396,7 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,8 +409,14 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -408,8 +429,14 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -422,8 +449,14 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -435,6 +468,12 @@
       </c>
       <c r="D4" t="s">
         <v>8</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
